--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_software_system_application.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_software_system_application.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.121</v>
+        <v>0.0636</v>
       </c>
       <c r="G2">
-        <v>0.5317355371900827</v>
+        <v>0.02875</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.03292461167707035</v>
+        <v>-1.36875</v>
       </c>
       <c r="J2">
-        <v>-0.03292461167707035</v>
+        <v>-1.36875</v>
       </c>
       <c r="K2">
-        <v>-15.92</v>
+        <v>-2.47</v>
       </c>
       <c r="L2">
-        <v>-2.631404958677686</v>
+        <v>-1.54375</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.295</v>
+        <v>0.395</v>
       </c>
       <c r="V2">
-        <v>0.2626774847870182</v>
+        <v>0.02244318181818182</v>
       </c>
       <c r="W2">
-        <v>0.3474570266136795</v>
+        <v>-3.416320885200554</v>
       </c>
       <c r="X2">
-        <v>0.2111642424317087</v>
+        <v>0.09452487090477037</v>
       </c>
       <c r="Y2">
-        <v>0.1362927841819708</v>
+        <v>-3.510845756105324</v>
       </c>
       <c r="Z2">
-        <v>0.4560541164010905</v>
+        <v>2.43161094224924</v>
       </c>
       <c r="AA2">
-        <v>2.086975304120291</v>
+        <v>-3.328267477203648</v>
       </c>
       <c r="AB2">
-        <v>0.1550131022086023</v>
+        <v>0.09452487090477037</v>
       </c>
       <c r="AC2">
-        <v>1.931962201911688</v>
+        <v>-3.422792348108418</v>
       </c>
       <c r="AD2">
-        <v>0.449</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.365969503231378</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.814969503231378</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5199695032313782</v>
+        <v>-0.395</v>
       </c>
       <c r="AH2">
-        <v>0.2690849087400415</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.2315611846260842</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.09540778217622679</v>
+        <v>-0.02295844231328102</v>
       </c>
       <c r="AK2">
-        <v>0.07946995671836478</v>
+        <v>-0.1327731092436975</v>
       </c>
       <c r="AL2">
-        <v>9.539</v>
+        <v>0.002</v>
       </c>
       <c r="AM2">
-        <v>9.539</v>
-      </c>
-      <c r="AN2">
-        <v>0.5154994259471871</v>
+        <v>0.002</v>
       </c>
       <c r="AO2">
-        <v>-0.0835517349827026</v>
-      </c>
-      <c r="AP2">
-        <v>0.5969799118615134</v>
+        <v>-1095</v>
       </c>
       <c r="AQ2">
-        <v>-0.0835517349827026</v>
+        <v>-1095</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blockchain Holdings Ltd. (CNSX:BCX)</t>
+          <t>TraceSafe Inc. (CNSX:TSF)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,8 +712,26 @@
           <t>Software (System &amp; Application)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0636</v>
+      </c>
+      <c r="G3">
+        <v>0.02875</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1.36875</v>
+      </c>
+      <c r="J3">
+        <v>-1.36875</v>
+      </c>
       <c r="K3">
-        <v>-1.22</v>
+        <v>-2.47</v>
+      </c>
+      <c r="L3">
+        <v>-1.54375</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -743,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.065</v>
+        <v>0.395</v>
       </c>
       <c r="V3">
-        <v>0.01911764705882353</v>
+        <v>0.02244318181818182</v>
       </c>
       <c r="W3">
-        <v>1.433607520564042</v>
+        <v>-3.416320885200554</v>
       </c>
       <c r="X3">
-        <v>0.1514537924139991</v>
+        <v>0.09452487090477037</v>
       </c>
       <c r="Y3">
-        <v>1.282153728150043</v>
+        <v>-3.510845756105324</v>
       </c>
       <c r="Z3">
-        <v>-0</v>
+        <v>2.43161094224924</v>
       </c>
       <c r="AA3">
-        <v>4.129533678756478</v>
+        <v>-3.328267477203648</v>
       </c>
       <c r="AB3">
-        <v>0.1514537924139991</v>
+        <v>0.09452487090477037</v>
       </c>
       <c r="AC3">
-        <v>3.978079886342479</v>
+        <v>-3.422792348108418</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -779,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.065</v>
+        <v>-0.395</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -788,150 +800,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.01949025487256372</v>
+        <v>-0.02295844231328102</v>
       </c>
       <c r="AK3">
-        <v>-0.09878419452887539</v>
+        <v>-0.1327731092436975</v>
       </c>
       <c r="AL3">
-        <v>0.059</v>
+        <v>0.002</v>
       </c>
       <c r="AM3">
-        <v>0.059</v>
+        <v>0.002</v>
       </c>
       <c r="AO3">
-        <v>-13.50847457627119</v>
+        <v>-1095</v>
       </c>
       <c r="AQ3">
-        <v>-13.50847457627119</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>British Virgin Islands</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TechFinancials, Inc. (AIM:TECH)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Software (System &amp; Application)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>-0.121</v>
-      </c>
-      <c r="G4">
-        <v>0.5504132231404959</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.09881092551301231</v>
-      </c>
-      <c r="J4">
-        <v>0.09881092551301231</v>
-      </c>
-      <c r="K4">
-        <v>-14.7</v>
-      </c>
-      <c r="L4">
-        <v>-2.429752066115702</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>1.23</v>
-      </c>
-      <c r="V4">
-        <v>0.8039215686274509</v>
-      </c>
-      <c r="W4">
-        <v>-0.7386934673366834</v>
-      </c>
-      <c r="X4">
-        <v>0.2708746924494183</v>
-      </c>
-      <c r="Y4">
-        <v>-1.009568159786102</v>
-      </c>
-      <c r="Z4">
-        <v>0.4495143553559171</v>
-      </c>
-      <c r="AA4">
-        <v>0.04441692948410326</v>
-      </c>
-      <c r="AB4">
-        <v>0.1585724120032055</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1141554825191022</v>
-      </c>
-      <c r="AD4">
-        <v>0.449</v>
-      </c>
-      <c r="AE4">
-        <v>1.365969503231378</v>
-      </c>
-      <c r="AF4">
-        <v>1.814969503231378</v>
-      </c>
-      <c r="AG4">
-        <v>0.5849695032313782</v>
-      </c>
-      <c r="AH4">
-        <v>0.5425967266601512</v>
-      </c>
-      <c r="AI4">
-        <v>0.2550916771192175</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2765853135648653</v>
-      </c>
-      <c r="AK4">
-        <v>0.09940060061656687</v>
-      </c>
-      <c r="AL4">
-        <v>9.48</v>
-      </c>
-      <c r="AM4">
-        <v>9.48</v>
-      </c>
-      <c r="AN4">
-        <v>0.5154994259471871</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0.6716067775331552</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
+        <v>-1095</v>
       </c>
     </row>
   </sheetData>
